--- a/tables/Table_nutrients.xlsx
+++ b/tables/Table_nutrients.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/nutrition/global_intake_inadequacies/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E44FF7-FABC-A04E-BF33-81E9205CE3B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACD8C94-5146-BA47-A60E-BB8C7449B8EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3460" yWindow="5620" windowWidth="28040" windowHeight="17440" xr2:uid="{4ADEBE13-16F4-2A4E-B7A0-17F434AE0AB7}"/>
   </bookViews>
@@ -78,9 +78,6 @@
     <t>Vitamin B3</t>
   </si>
   <si>
-    <t>Vitmain B2</t>
-  </si>
-  <si>
     <t>Vitamin B1</t>
   </si>
   <si>
@@ -97,6 +94,9 @@
   </si>
   <si>
     <t>mcg</t>
+  </si>
+  <si>
+    <t>Vitamin B2</t>
   </si>
 </sst>
 </file>
@@ -481,7 +481,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -503,62 +503,62 @@
         <v>15</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -569,7 +569,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -583,7 +583,7 @@
         <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -594,10 +594,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -608,10 +608,10 @@
         <v>14</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -630,10 +630,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -644,7 +644,7 @@
         <v>11</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -653,5 +653,6 @@
     <sortCondition ref="B2:B13"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/tables/Table_nutrients.xlsx
+++ b/tables/Table_nutrients.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/nutrition/global_intake_inadequacies/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACD8C94-5146-BA47-A60E-BB8C7449B8EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6D7D13-DCEF-1040-B745-C2F16CA4AC36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3460" yWindow="5620" windowWidth="28040" windowHeight="17440" xr2:uid="{4ADEBE13-16F4-2A4E-B7A0-17F434AE0AB7}"/>
+    <workbookView xWindow="4880" yWindow="640" windowWidth="28040" windowHeight="17440" xr2:uid="{4ADEBE13-16F4-2A4E-B7A0-17F434AE0AB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,41 +25,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="33">
   <si>
     <t>Nutrient</t>
   </si>
   <si>
-    <t>Category</t>
-  </si>
-  <si>
     <t>Calcium</t>
   </si>
   <si>
     <t>Copper</t>
   </si>
   <si>
-    <t>Folate</t>
-  </si>
-  <si>
     <t>Iron</t>
   </si>
   <si>
     <t>Magnesium</t>
   </si>
   <si>
-    <t>Niacin</t>
-  </si>
-  <si>
-    <t>Riboflavin</t>
-  </si>
-  <si>
     <t>Vitamin A</t>
   </si>
   <si>
-    <t>Vitamin B6</t>
-  </si>
-  <si>
     <t>Vitamin C</t>
   </si>
   <si>
@@ -69,21 +54,6 @@
     <t>Vitamin</t>
   </si>
   <si>
-    <t>Thiamine</t>
-  </si>
-  <si>
-    <t>Other name</t>
-  </si>
-  <si>
-    <t>Vitamin B3</t>
-  </si>
-  <si>
-    <t>Vitamin B1</t>
-  </si>
-  <si>
-    <t>Pyridoxine</t>
-  </si>
-  <si>
     <t>Mineral</t>
   </si>
   <si>
@@ -93,17 +63,74 @@
     <t>mg</t>
   </si>
   <si>
-    <t>mcg</t>
-  </si>
-  <si>
-    <t>Vitamin B2</t>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Folate (vitamin B9)</t>
+  </si>
+  <si>
+    <t>Niacin (vitamin B3)</t>
+  </si>
+  <si>
+    <t>Riboflavin (vitamin B2)</t>
+  </si>
+  <si>
+    <t>Thiamine (vitamin B1)</t>
+  </si>
+  <si>
+    <t>Vitamin B6 (pyridoxine)</t>
+  </si>
+  <si>
+    <t>µg RAE</t>
+  </si>
+  <si>
+    <t>µg</t>
+  </si>
+  <si>
+    <t>AR source</t>
+  </si>
+  <si>
+    <t>EFSA</t>
+  </si>
+  <si>
+    <t>IOM</t>
+  </si>
+  <si>
+    <t>Importance</t>
+  </si>
+  <si>
+    <t>Niacin helps to convert nutrients into energy, create cholesterol and fats, create and repair DNA, and exert antioxidant effect</t>
+  </si>
+  <si>
+    <t>Plays a vital role in the growth and function of various cells</t>
+  </si>
+  <si>
+    <t>Stimulates the production and activity of white blood cells, takes part in remodeling bone, helps maintain healthy endothelial cells (those lining the body’s interior surfaces), and regulates cell growth and division such as needed for reproduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports the breakdown of proteins, carbohydrates, and fats; maintaining normal levels of homocysteine (since high levels can cause heart problems); and supporting immune function and brain health. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plays a role in controlling infections, healing wounds, and neutralizing free radicals; producing collagen and hormones and chemical messengers used in the brain and nerve </t>
+  </si>
+  <si>
+    <t>A key component of coenzymes involved with the growth of cells, energy production, and the breakdown of fats, steroids, and medications</t>
+  </si>
+  <si>
+    <t>Folate helps to form DNA and RNA and is involved in protein metabolism. It plays a key role in breaking down homocysteine, an amino acid that can exert harmful effects in the body if it is present in high amounts. Folate is also needed to produce healthy red blood cells and is critical during periods of rapid growth, such as during pregnancy and fetal development.</t>
+  </si>
+  <si>
+    <t>A major player in the creation of DNA, growth of cells, building proteins, healing damaged tissue, and supporting a healthy immune system. [1] Because it helps cells to grow and multiply, adequate zinc is required during times of rapid growth, such as childhood, adolescence, and pregnancy. Zinc is also involved with the senses of taste and smell.</t>
+  </si>
+  <si>
+    <t>plays an important role in assisting more than 300 enzymes to carry out various chemical reactions in the body such as building proteins and strong bones, and regulating blood sugar, blood pressure, and muscle and nerve functions. Magnesium also acts an electrical conductor that contracts muscles and makes the heart beat steadily.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -125,6 +152,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Grande"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -162,8 +195,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,178 +511,233 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F0E3EB5-0193-624D-8768-61ECE6A34268}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D13" sqref="A1:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="2"/>
-    <col min="3" max="3" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="C13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>21</v>
+      <c r="E13" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C13">
-    <sortCondition ref="A2:A13"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B13">
     <sortCondition ref="B2:B13"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
